--- a/LanQiao/复习.xlsx
+++ b/LanQiao/复习.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\c++\Game\LanQiao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F781E1-468F-406C-9161-37F709A5A352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269CD6AA-5687-4B66-8667-11E019A77DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3276" yWindow="1536" windowWidth="16800" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>第七届省赛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>第十一届决赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +442,7 @@
   <dimension ref="A1:AK48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -706,13 +710,25 @@
       <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>

--- a/LanQiao/复习.xlsx
+++ b/LanQiao/复习.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\c++\Game\LanQiao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269CD6AA-5687-4B66-8667-11E019A77DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BF5E87-FA06-4843-B883-8ADBE5D21D83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="1536" windowWidth="16800" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="864" windowWidth="16800" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -133,11 +133,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -159,6 +172,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -439,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK48"/>
+  <dimension ref="A1:AK976"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD976"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -924,19 +940,19 @@
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
@@ -961,7 +977,7 @@
       <c r="AJ15" s="10"/>
       <c r="AK15" s="10"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -974,7 +990,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -987,7 +1003,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="8"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1000,7 +1016,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1013,7 +1029,7 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1026,7 +1042,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1039,7 +1055,7 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -1052,7 +1068,7 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -1065,7 +1081,7 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -1078,7 +1094,7 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -1091,8 +1107,7 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D26" s="9"/>
+    <row r="26" spans="4:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -1104,8 +1119,7 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D27" s="9"/>
+    <row r="27" spans="4:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1117,8 +1131,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D28" s="9"/>
+    <row r="28" spans="4:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -1130,8 +1143,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D29" s="9"/>
+    <row r="29" spans="4:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -1143,8 +1155,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D30" s="9"/>
+    <row r="30" spans="4:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -1156,8 +1167,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D31" s="9"/>
+    <row r="31" spans="4:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -1169,8 +1179,7 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D32" s="9"/>
+    <row r="32" spans="4:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -1182,8 +1191,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D33" s="9"/>
+    <row r="33" spans="5:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -1195,8 +1203,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D34" s="9"/>
+    <row r="34" spans="5:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -1208,8 +1215,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D35" s="9"/>
+    <row r="35" spans="5:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -1221,8 +1227,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D36" s="9"/>
+    <row r="36" spans="5:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -1234,8 +1239,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D37" s="9"/>
+    <row r="37" spans="5:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -1247,149 +1251,945 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-    </row>
-    <row r="39" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-    </row>
-    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-    </row>
-    <row r="41" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-    </row>
-    <row r="42" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-    </row>
-    <row r="43" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-    </row>
-    <row r="44" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-    </row>
-    <row r="45" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-    </row>
-    <row r="46" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-    </row>
-    <row r="47" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-    </row>
-    <row r="48" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-    </row>
+    <row r="38" spans="5:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="5:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="5:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="5:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="5:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="5:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="5:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="5:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="5:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="5:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="5:14" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" s="9" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
